--- a/Data/Transitions/19531974Translation.xlsx
+++ b/Data/Transitions/19531974Translation.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="965" uniqueCount="727">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="965" uniqueCount="726">
   <si>
     <t>id</t>
   </si>
@@ -592,7 +592,7 @@
     <t>{319.0: 1.0}</t>
   </si>
   <si>
-    <t>{320.0: 0.6871389480085133}</t>
+    <t>{242.0: 1.0}</t>
   </si>
   <si>
     <t>{398.0: 1.0, 98.0: 0.198807936632421, 532.0: 0.33661933616713396, 560.0: 0.09696578437701743}</t>
@@ -766,7 +766,7 @@
     <t>{493.0: 0.9964826549013788}</t>
   </si>
   <si>
-    <t>{494.0: 0.979825999243475, 889.0: 0.0006215198201897897, 565.0: 1.629934096866161e-05}</t>
+    <t>{494.0: 0.979825999243475, 889.0: 0.0010856577184348603, 565.0: 1.629934096866161e-05}</t>
   </si>
   <si>
     <t>{495.0: 1.0}</t>
@@ -1213,7 +1213,7 @@
     <t>{784.0: 1.0}</t>
   </si>
   <si>
-    <t>{785.0: 0.9968371837183718, 889.0: 0.5730622017651047}</t>
+    <t>{785.0: 0.9968371837183718, 889.0: 0.25659597967009595}</t>
   </si>
   <si>
     <t>{787.0: 1.0, 500.0: 0.0077458518588053235, 277.0: 2.0614376204405384e-06}</t>
@@ -1309,7 +1309,7 @@
     <t>{887.0: 0.996169353647658, 619.0: 0.0006435006435006435, 267.0: 0.07029177718832891}</t>
   </si>
   <si>
-    <t>{889.0: 0.4244980371896264, 565.0: 0.01113244988159588, 494.0: 0.020174000756525028}</t>
+    <t>{889.0: 0.7415042216910095, 565.0: 0.01113244988159588, 494.0: 0.020174000756525028}</t>
   </si>
   <si>
     <t>{890.0: 1.0}</t>
@@ -1414,7 +1414,7 @@
     <t>{937.0: 1.0}</t>
   </si>
   <si>
-    <t>{940.0: 1.0, 206.0: 0.0009120389136603161, 578.0: 0.00016603527800446063, 785.0: 0.0031628162816281628, 889.0: 0.0018182412250789639}</t>
+    <t>{940.0: 1.0, 206.0: 0.0009120389136603161, 578.0: 0.00016603527800446063, 785.0: 0.0031628162816281628, 889.0: 0.0008141409204596781}</t>
   </si>
   <si>
     <t>{941.0: 1.0}</t>
@@ -1765,9 +1765,6 @@
     <t>{315.0: 1.0}</t>
   </si>
   <si>
-    <t>{320.0: 1.0}</t>
-  </si>
-  <si>
     <t>{398.0: 0.8644858180802012, 98.0: 0.04427483582506636, 532.0: 0.0650062875506497, 560.0: 0.02623305854408272}</t>
   </si>
   <si>
@@ -2074,7 +2071,7 @@
     <t>{781.0: 0.9992775312209718, 435.0: 0.0007224687790277634}</t>
   </si>
   <si>
-    <t>{785.0: 0.7952854710047504, 889.0: 0.20471452899524964}</t>
+    <t>{785.0: 0.6852693950668322, 889.0: 0.314730604933168}</t>
   </si>
   <si>
     <t>{787.0: 0.9919894647611931, 500.0: 0.0080055674650148, 277.0: 4.967773791507788e-06}</t>
@@ -2173,7 +2170,7 @@
     <t>{936.0: 0.9836341995635787, 637.0: 0.016365800436421343}</t>
   </si>
   <si>
-    <t>{940.0: 0.9932928107315031, 206.0: 0.0015124655498356696, 578.0: 0.0003739314319291597, 785.0: 0.003833906064369998, 889.0: 0.0009868862223623436}</t>
+    <t>{940.0: 0.9932928107315031, 206.0: 0.0015124655498356696, 578.0: 0.0003739314319291597, 785.0: 0.003303541414071921, 889.0: 0.00151725087266042}</t>
   </si>
   <si>
     <t>{942.0: 1.0}</t>
@@ -4656,7 +4653,7 @@
         <v>192</v>
       </c>
       <c r="C191" t="s">
-        <v>583</v>
+        <v>192</v>
       </c>
     </row>
     <row r="192" spans="1:3">
@@ -4667,7 +4664,7 @@
         <v>193</v>
       </c>
       <c r="C192" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="193" spans="1:3">
@@ -4689,7 +4686,7 @@
         <v>195</v>
       </c>
       <c r="C194" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
     </row>
     <row r="195" spans="1:3">
@@ -4700,7 +4697,7 @@
         <v>196</v>
       </c>
       <c r="C195" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="196" spans="1:3">
@@ -4711,7 +4708,7 @@
         <v>197</v>
       </c>
       <c r="C196" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="197" spans="1:3">
@@ -4722,7 +4719,7 @@
         <v>198</v>
       </c>
       <c r="C197" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="198" spans="1:3">
@@ -4733,7 +4730,7 @@
         <v>199</v>
       </c>
       <c r="C198" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="199" spans="1:3">
@@ -4777,7 +4774,7 @@
         <v>203</v>
       </c>
       <c r="C202" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="203" spans="1:3">
@@ -4843,7 +4840,7 @@
         <v>209</v>
       </c>
       <c r="C208" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="209" spans="1:3">
@@ -4865,7 +4862,7 @@
         <v>211</v>
       </c>
       <c r="C210" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="211" spans="1:3">
@@ -4887,7 +4884,7 @@
         <v>213</v>
       </c>
       <c r="C212" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
     </row>
     <row r="213" spans="1:3">
@@ -4898,7 +4895,7 @@
         <v>214</v>
       </c>
       <c r="C213" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="214" spans="1:3">
@@ -4920,7 +4917,7 @@
         <v>216</v>
       </c>
       <c r="C215" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="216" spans="1:3">
@@ -4997,7 +4994,7 @@
         <v>223</v>
       </c>
       <c r="C222" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="223" spans="1:3">
@@ -5019,7 +5016,7 @@
         <v>225</v>
       </c>
       <c r="C224" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="225" spans="1:3">
@@ -5030,7 +5027,7 @@
         <v>226</v>
       </c>
       <c r="C225" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="226" spans="1:3">
@@ -5041,7 +5038,7 @@
         <v>227</v>
       </c>
       <c r="C226" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="227" spans="1:3">
@@ -5063,7 +5060,7 @@
         <v>229</v>
       </c>
       <c r="C228" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="229" spans="1:3">
@@ -5107,7 +5104,7 @@
         <v>233</v>
       </c>
       <c r="C232" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="233" spans="1:3">
@@ -5118,7 +5115,7 @@
         <v>234</v>
       </c>
       <c r="C233" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="234" spans="1:3">
@@ -5129,7 +5126,7 @@
         <v>235</v>
       </c>
       <c r="C234" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="235" spans="1:3">
@@ -5140,7 +5137,7 @@
         <v>236</v>
       </c>
       <c r="C235" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="236" spans="1:3">
@@ -5151,7 +5148,7 @@
         <v>237</v>
       </c>
       <c r="C236" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="237" spans="1:3">
@@ -5173,7 +5170,7 @@
         <v>239</v>
       </c>
       <c r="C238" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="239" spans="1:3">
@@ -5272,7 +5269,7 @@
         <v>248</v>
       </c>
       <c r="C247" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
     </row>
     <row r="248" spans="1:3">
@@ -5283,7 +5280,7 @@
         <v>249</v>
       </c>
       <c r="C248" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="249" spans="1:3">
@@ -5294,7 +5291,7 @@
         <v>250</v>
       </c>
       <c r="C249" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="250" spans="1:3">
@@ -5316,7 +5313,7 @@
         <v>252</v>
       </c>
       <c r="C251" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="252" spans="1:3">
@@ -5327,7 +5324,7 @@
         <v>253</v>
       </c>
       <c r="C252" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
     </row>
     <row r="253" spans="1:3">
@@ -5338,7 +5335,7 @@
         <v>254</v>
       </c>
       <c r="C253" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="254" spans="1:3">
@@ -5349,7 +5346,7 @@
         <v>255</v>
       </c>
       <c r="C254" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="255" spans="1:3">
@@ -5426,7 +5423,7 @@
         <v>262</v>
       </c>
       <c r="C261" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="262" spans="1:3">
@@ -5437,7 +5434,7 @@
         <v>263</v>
       </c>
       <c r="C262" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="263" spans="1:3">
@@ -5448,7 +5445,7 @@
         <v>264</v>
       </c>
       <c r="C263" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
     <row r="264" spans="1:3">
@@ -5470,7 +5467,7 @@
         <v>266</v>
       </c>
       <c r="C265" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="266" spans="1:3">
@@ -5492,7 +5489,7 @@
         <v>268</v>
       </c>
       <c r="C267" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
     </row>
     <row r="268" spans="1:3">
@@ -5503,7 +5500,7 @@
         <v>269</v>
       </c>
       <c r="C268" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="269" spans="1:3">
@@ -5514,7 +5511,7 @@
         <v>270</v>
       </c>
       <c r="C269" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="270" spans="1:3">
@@ -5547,7 +5544,7 @@
         <v>273</v>
       </c>
       <c r="C272" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
     </row>
     <row r="273" spans="1:3">
@@ -5569,7 +5566,7 @@
         <v>275</v>
       </c>
       <c r="C274" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
     </row>
     <row r="275" spans="1:3">
@@ -5580,7 +5577,7 @@
         <v>276</v>
       </c>
       <c r="C275" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
     <row r="276" spans="1:3">
@@ -5591,7 +5588,7 @@
         <v>277</v>
       </c>
       <c r="C276" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
     <row r="277" spans="1:3">
@@ -5602,7 +5599,7 @@
         <v>278</v>
       </c>
       <c r="C277" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="278" spans="1:3">
@@ -5613,7 +5610,7 @@
         <v>279</v>
       </c>
       <c r="C278" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="279" spans="1:3">
@@ -5624,7 +5621,7 @@
         <v>280</v>
       </c>
       <c r="C279" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="280" spans="1:3">
@@ -5646,7 +5643,7 @@
         <v>282</v>
       </c>
       <c r="C281" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="282" spans="1:3">
@@ -5657,7 +5654,7 @@
         <v>283</v>
       </c>
       <c r="C282" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="283" spans="1:3">
@@ -5679,7 +5676,7 @@
         <v>285</v>
       </c>
       <c r="C284" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="285" spans="1:3">
@@ -5690,7 +5687,7 @@
         <v>286</v>
       </c>
       <c r="C285" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="286" spans="1:3">
@@ -5701,7 +5698,7 @@
         <v>287</v>
       </c>
       <c r="C286" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
     </row>
     <row r="287" spans="1:3">
@@ -5712,7 +5709,7 @@
         <v>288</v>
       </c>
       <c r="C287" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="288" spans="1:3">
@@ -5723,7 +5720,7 @@
         <v>289</v>
       </c>
       <c r="C288" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="289" spans="1:3">
@@ -5767,7 +5764,7 @@
         <v>293</v>
       </c>
       <c r="C292" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
     </row>
     <row r="293" spans="1:3">
@@ -5778,7 +5775,7 @@
         <v>294</v>
       </c>
       <c r="C293" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="294" spans="1:3">
@@ -5811,7 +5808,7 @@
         <v>297</v>
       </c>
       <c r="C296" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="297" spans="1:3">
@@ -5844,7 +5841,7 @@
         <v>300</v>
       </c>
       <c r="C299" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="300" spans="1:3">
@@ -5899,7 +5896,7 @@
         <v>305</v>
       </c>
       <c r="C304" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="305" spans="1:3">
@@ -5910,7 +5907,7 @@
         <v>306</v>
       </c>
       <c r="C305" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
     <row r="306" spans="1:3">
@@ -5932,7 +5929,7 @@
         <v>308</v>
       </c>
       <c r="C307" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="308" spans="1:3">
@@ -5943,7 +5940,7 @@
         <v>309</v>
       </c>
       <c r="C308" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="309" spans="1:3">
@@ -5965,7 +5962,7 @@
         <v>311</v>
       </c>
       <c r="C310" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
     <row r="311" spans="1:3">
@@ -5987,7 +5984,7 @@
         <v>313</v>
       </c>
       <c r="C312" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="313" spans="1:3">
@@ -5998,7 +5995,7 @@
         <v>314</v>
       </c>
       <c r="C313" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="314" spans="1:3">
@@ -6031,7 +6028,7 @@
         <v>317</v>
       </c>
       <c r="C316" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="317" spans="1:3">
@@ -6053,7 +6050,7 @@
         <v>319</v>
       </c>
       <c r="C318" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="319" spans="1:3">
@@ -6064,7 +6061,7 @@
         <v>320</v>
       </c>
       <c r="C319" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="320" spans="1:3">
@@ -6086,7 +6083,7 @@
         <v>322</v>
       </c>
       <c r="C321" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="322" spans="1:3">
@@ -6141,7 +6138,7 @@
         <v>327</v>
       </c>
       <c r="C326" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="327" spans="1:3">
@@ -6152,7 +6149,7 @@
         <v>328</v>
       </c>
       <c r="C327" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="328" spans="1:3">
@@ -6207,7 +6204,7 @@
         <v>333</v>
       </c>
       <c r="C332" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="333" spans="1:3">
@@ -6218,7 +6215,7 @@
         <v>334</v>
       </c>
       <c r="C333" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="334" spans="1:3">
@@ -6229,7 +6226,7 @@
         <v>335</v>
       </c>
       <c r="C334" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="335" spans="1:3">
@@ -6240,7 +6237,7 @@
         <v>336</v>
       </c>
       <c r="C335" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="336" spans="1:3">
@@ -6251,7 +6248,7 @@
         <v>337</v>
       </c>
       <c r="C336" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="337" spans="1:3">
@@ -6262,7 +6259,7 @@
         <v>338</v>
       </c>
       <c r="C337" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
     <row r="338" spans="1:3">
@@ -6273,7 +6270,7 @@
         <v>339</v>
       </c>
       <c r="C338" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="339" spans="1:3">
@@ -6284,7 +6281,7 @@
         <v>340</v>
       </c>
       <c r="C339" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="340" spans="1:3">
@@ -6295,7 +6292,7 @@
         <v>341</v>
       </c>
       <c r="C340" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
     </row>
     <row r="341" spans="1:3">
@@ -6306,7 +6303,7 @@
         <v>342</v>
       </c>
       <c r="C341" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
     </row>
     <row r="342" spans="1:3">
@@ -6317,7 +6314,7 @@
         <v>343</v>
       </c>
       <c r="C342" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
     </row>
     <row r="343" spans="1:3">
@@ -6339,7 +6336,7 @@
         <v>345</v>
       </c>
       <c r="C344" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="345" spans="1:3">
@@ -6350,7 +6347,7 @@
         <v>346</v>
       </c>
       <c r="C345" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
     </row>
     <row r="346" spans="1:3">
@@ -6361,7 +6358,7 @@
         <v>347</v>
       </c>
       <c r="C346" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
     </row>
     <row r="347" spans="1:3">
@@ -6383,7 +6380,7 @@
         <v>349</v>
       </c>
       <c r="C348" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
     </row>
     <row r="349" spans="1:3">
@@ -6394,7 +6391,7 @@
         <v>350</v>
       </c>
       <c r="C349" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
     </row>
     <row r="350" spans="1:3">
@@ -6405,7 +6402,7 @@
         <v>351</v>
       </c>
       <c r="C350" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="351" spans="1:3">
@@ -6438,7 +6435,7 @@
         <v>354</v>
       </c>
       <c r="C353" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="354" spans="1:3">
@@ -6460,7 +6457,7 @@
         <v>356</v>
       </c>
       <c r="C355" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="356" spans="1:3">
@@ -6471,7 +6468,7 @@
         <v>357</v>
       </c>
       <c r="C356" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
     </row>
     <row r="357" spans="1:3">
@@ -6482,7 +6479,7 @@
         <v>358</v>
       </c>
       <c r="C357" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="358" spans="1:3">
@@ -6515,7 +6512,7 @@
         <v>361</v>
       </c>
       <c r="C360" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
     </row>
     <row r="361" spans="1:3">
@@ -6526,7 +6523,7 @@
         <v>362</v>
       </c>
       <c r="C361" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
     </row>
     <row r="362" spans="1:3">
@@ -6559,7 +6556,7 @@
         <v>365</v>
       </c>
       <c r="C364" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
     </row>
     <row r="365" spans="1:3">
@@ -6570,7 +6567,7 @@
         <v>366</v>
       </c>
       <c r="C365" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="366" spans="1:3">
@@ -6581,7 +6578,7 @@
         <v>367</v>
       </c>
       <c r="C366" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
     </row>
     <row r="367" spans="1:3">
@@ -6614,7 +6611,7 @@
         <v>370</v>
       </c>
       <c r="C369" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
     </row>
     <row r="370" spans="1:3">
@@ -6658,7 +6655,7 @@
         <v>374</v>
       </c>
       <c r="C373" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
     <row r="374" spans="1:3">
@@ -6713,7 +6710,7 @@
         <v>379</v>
       </c>
       <c r="C378" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
     </row>
     <row r="379" spans="1:3">
@@ -6735,7 +6732,7 @@
         <v>381</v>
       </c>
       <c r="C380" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
     </row>
     <row r="381" spans="1:3">
@@ -6801,7 +6798,7 @@
         <v>387</v>
       </c>
       <c r="C386" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
     </row>
     <row r="387" spans="1:3">
@@ -6834,7 +6831,7 @@
         <v>390</v>
       </c>
       <c r="C389" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
     </row>
     <row r="390" spans="1:3">
@@ -6889,7 +6886,7 @@
         <v>395</v>
       </c>
       <c r="C394" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
     </row>
     <row r="395" spans="1:3">
@@ -6900,7 +6897,7 @@
         <v>396</v>
       </c>
       <c r="C395" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
     </row>
     <row r="396" spans="1:3">
@@ -6933,7 +6930,7 @@
         <v>399</v>
       </c>
       <c r="C398" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
     </row>
     <row r="399" spans="1:3">
@@ -6944,7 +6941,7 @@
         <v>400</v>
       </c>
       <c r="C399" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
     </row>
     <row r="400" spans="1:3">
@@ -6955,7 +6952,7 @@
         <v>401</v>
       </c>
       <c r="C400" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="401" spans="1:3">
@@ -6977,7 +6974,7 @@
         <v>403</v>
       </c>
       <c r="C402" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="403" spans="1:3">
@@ -6988,7 +6985,7 @@
         <v>404</v>
       </c>
       <c r="C403" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
     </row>
     <row r="404" spans="1:3">
@@ -6999,7 +6996,7 @@
         <v>405</v>
       </c>
       <c r="C404" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
     </row>
     <row r="405" spans="1:3">
@@ -7010,7 +7007,7 @@
         <v>406</v>
       </c>
       <c r="C405" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
     </row>
     <row r="406" spans="1:3">
@@ -7021,7 +7018,7 @@
         <v>407</v>
       </c>
       <c r="C406" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
     </row>
     <row r="407" spans="1:3">
@@ -7032,7 +7029,7 @@
         <v>408</v>
       </c>
       <c r="C407" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="408" spans="1:3">
@@ -7043,7 +7040,7 @@
         <v>409</v>
       </c>
       <c r="C408" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="409" spans="1:3">
@@ -7054,7 +7051,7 @@
         <v>410</v>
       </c>
       <c r="C409" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
     </row>
     <row r="410" spans="1:3">
@@ -7087,7 +7084,7 @@
         <v>413</v>
       </c>
       <c r="C412" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
     </row>
     <row r="413" spans="1:3">
@@ -7109,7 +7106,7 @@
         <v>415</v>
       </c>
       <c r="C414" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
     </row>
     <row r="415" spans="1:3">
@@ -7131,7 +7128,7 @@
         <v>417</v>
       </c>
       <c r="C416" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
     </row>
     <row r="417" spans="1:3">
@@ -7153,7 +7150,7 @@
         <v>419</v>
       </c>
       <c r="C418" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
     </row>
     <row r="419" spans="1:3">
@@ -7208,7 +7205,7 @@
         <v>424</v>
       </c>
       <c r="C423" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
     </row>
     <row r="424" spans="1:3">
@@ -7263,7 +7260,7 @@
         <v>429</v>
       </c>
       <c r="C428" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
     </row>
     <row r="429" spans="1:3">
@@ -7274,7 +7271,7 @@
         <v>430</v>
       </c>
       <c r="C429" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
     </row>
     <row r="430" spans="1:3">
@@ -7285,7 +7282,7 @@
         <v>431</v>
       </c>
       <c r="C430" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
     </row>
     <row r="431" spans="1:3">
@@ -7340,7 +7337,7 @@
         <v>436</v>
       </c>
       <c r="C435" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="436" spans="1:3">
@@ -7351,7 +7348,7 @@
         <v>437</v>
       </c>
       <c r="C436" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
     </row>
     <row r="437" spans="1:3">
@@ -7362,7 +7359,7 @@
         <v>438</v>
       </c>
       <c r="C437" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="438" spans="1:3">
@@ -7373,7 +7370,7 @@
         <v>439</v>
       </c>
       <c r="C438" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
     <row r="439" spans="1:3">
@@ -7384,7 +7381,7 @@
         <v>440</v>
       </c>
       <c r="C439" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
     </row>
     <row r="440" spans="1:3">
@@ -7395,7 +7392,7 @@
         <v>441</v>
       </c>
       <c r="C440" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
     </row>
     <row r="441" spans="1:3">
@@ -7406,7 +7403,7 @@
         <v>442</v>
       </c>
       <c r="C441" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="442" spans="1:3">
@@ -7417,7 +7414,7 @@
         <v>443</v>
       </c>
       <c r="C442" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
     </row>
     <row r="443" spans="1:3">
@@ -7439,7 +7436,7 @@
         <v>445</v>
       </c>
       <c r="C444" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
     </row>
     <row r="445" spans="1:3">
@@ -7516,7 +7513,7 @@
         <v>452</v>
       </c>
       <c r="C451" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
     </row>
     <row r="452" spans="1:3">
@@ -7549,7 +7546,7 @@
         <v>455</v>
       </c>
       <c r="C454" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
     </row>
     <row r="455" spans="1:3">
@@ -7582,7 +7579,7 @@
         <v>458</v>
       </c>
       <c r="C457" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
     </row>
     <row r="458" spans="1:3">
@@ -7615,7 +7612,7 @@
         <v>461</v>
       </c>
       <c r="C460" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
     </row>
     <row r="461" spans="1:3">
@@ -7648,7 +7645,7 @@
         <v>464</v>
       </c>
       <c r="C463" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
     </row>
     <row r="464" spans="1:3">
@@ -7670,7 +7667,7 @@
         <v>466</v>
       </c>
       <c r="C465" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="466" spans="1:3">
@@ -7692,7 +7689,7 @@
         <v>468</v>
       </c>
       <c r="C467" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
     </row>
     <row r="468" spans="1:3">
@@ -7714,7 +7711,7 @@
         <v>470</v>
       </c>
       <c r="C469" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
     </row>
     <row r="470" spans="1:3">
@@ -7725,7 +7722,7 @@
         <v>471</v>
       </c>
       <c r="C470" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
     </row>
     <row r="471" spans="1:3">
@@ -7747,7 +7744,7 @@
         <v>473</v>
       </c>
       <c r="C472" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="473" spans="1:3">
@@ -7758,7 +7755,7 @@
         <v>474</v>
       </c>
       <c r="C473" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
     </row>
     <row r="474" spans="1:3">
@@ -7813,7 +7810,7 @@
         <v>479</v>
       </c>
       <c r="C478" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
     </row>
     <row r="479" spans="1:3">
@@ -7857,7 +7854,7 @@
         <v>483</v>
       </c>
       <c r="C482" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
     </row>
   </sheetData>
